--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/training_rf.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/training_rf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RMSE</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -89,6 +92,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,120 +117,138 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4.6732288612156321</v>
+        <v>3.2895343668952766</v>
       </c>
       <c r="B2" s="0">
-        <v>3.349165002429543</v>
+        <v>2.3127057387057386</v>
       </c>
       <c r="C2" s="0">
-        <v>0.87732116343611022</v>
+        <v>0.4520745120813951</v>
       </c>
       <c r="D2" s="0">
-        <v>0.93665423899970168</v>
+        <v>0.67236486529368489</v>
       </c>
       <c r="E2" s="0">
-        <v>0.97957443768047481</v>
+        <v>0.64564649321768253</v>
       </c>
       <c r="F2" s="0">
-        <v>0.12267883656388978</v>
+        <v>0.54792548791860485</v>
       </c>
       <c r="G2" s="0">
-        <v>0.35835292697263799</v>
+        <v>0.745739696638961</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.23941298157898669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3.8716089805253668</v>
+        <v>2.9204697635116927</v>
       </c>
       <c r="B3" s="0">
-        <v>3.1357063492063499</v>
+        <v>2.1854963624338621</v>
       </c>
       <c r="C3" s="0">
-        <v>0.53424895317403176</v>
+        <v>0.27616617092892587</v>
       </c>
       <c r="D3" s="0">
-        <v>0.73092335656622154</v>
+        <v>0.52551514814411004</v>
       </c>
       <c r="E3" s="0">
-        <v>0.74130173740102845</v>
+        <v>0.51678797882096528</v>
       </c>
       <c r="F3" s="0">
-        <v>0.46575104682596824</v>
+        <v>0.72383382907107419</v>
       </c>
       <c r="G3" s="0">
-        <v>0.68416001529138892</v>
+        <v>0.85599777326448456</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.20380110003570778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3.0911762691761546</v>
+        <v>3.70846076494434</v>
       </c>
       <c r="B4" s="0">
-        <v>2.4064450783771352</v>
+        <v>2.76842871189774</v>
       </c>
       <c r="C4" s="0">
-        <v>0.31697082280236477</v>
+        <v>0.44457278403895834</v>
       </c>
       <c r="D4" s="0">
-        <v>0.56300161882748145</v>
+        <v>0.66676291441483027</v>
       </c>
       <c r="E4" s="0">
-        <v>0.56185969609552533</v>
+        <v>0.62156010594920064</v>
       </c>
       <c r="F4" s="0">
-        <v>0.68302917719763523</v>
+        <v>0.55542721596104161</v>
       </c>
       <c r="G4" s="0">
-        <v>0.84266728122707812</v>
+        <v>0.75000970226409058</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.25261994311609942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3.6968585001972194</v>
+        <v>3.9495173561721337</v>
       </c>
       <c r="B5" s="0">
-        <v>2.8455278919534104</v>
+        <v>3.1118916790674596</v>
       </c>
       <c r="C5" s="0">
-        <v>0.4048751394729877</v>
+        <v>0.47903875079228225</v>
       </c>
       <c r="D5" s="0">
-        <v>0.6362979958109154</v>
+        <v>0.69212625350602197</v>
       </c>
       <c r="E5" s="0">
-        <v>0.63233953154520239</v>
+        <v>0.72260343180482045</v>
       </c>
       <c r="F5" s="0">
-        <v>0.5951248605270123</v>
+        <v>0.5209612492077178</v>
       </c>
       <c r="G5" s="0">
-        <v>0.77852363206618014</v>
+        <v>0.72319320180540436</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.28200766556030948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3.6282842123385377</v>
+        <v>3.4790983134161579</v>
       </c>
       <c r="B6" s="0">
-        <v>2.7299217241092233</v>
+        <v>2.6591716865930883</v>
       </c>
       <c r="C6" s="0">
-        <v>0.54761958807229272</v>
+        <v>0.45950955812580774</v>
       </c>
       <c r="D6" s="0">
-        <v>0.74001323506562555</v>
+        <v>0.67787134334312127</v>
       </c>
       <c r="E6" s="0">
-        <v>0.72258383380339419</v>
+        <v>0.70949084487542391</v>
       </c>
       <c r="F6" s="0">
-        <v>0.45238041192770728</v>
+        <v>0.54049044187419226</v>
       </c>
       <c r="G6" s="0">
-        <v>0.68842269618829</v>
+        <v>0.74002646360041857</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.25847684349302813</v>
       </c>
     </row>
   </sheetData>
